--- a/medicine/Psychotrope/Premiers_Crus/Premiers_Crus.xlsx
+++ b/medicine/Psychotrope/Premiers_Crus/Premiers_Crus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Premiers crus est un film français réalisé par Jérôme Le Maire, sorti en 2015.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine Maréchal est l'un des plus prestigieux vignobles de Bourgogne : planté de 4 hectares de vignes au cœur de la côte de Beaune, il produit des grands crus d'Aloxe-Corton. Le domaine appartient à la même famille depuis la Révolution, mais le propriétaire actuel, François Maréchal, se désintéresse de son exploitation depuis que sa femme l'a quitté et que son fils, Charlie, a refusé de devenir vigneron comme ses ancêtres et a préféré une carrière d'œnologue à Paris, où il publie un guide réputé.
 La qualité du vin périclite depuis plusieurs années : les caves sont pleines, et le vin ne se vend plus. Le domaine est désormais au bord de la faillite : mis en cessation de paiement, François Maréchal se voit obligé de confier la direction du domaine à un tuteur chargé de redresser la situation financière, faute de quoi, le vignoble sera vendu à des Japonais ou, pire encore, au domaine voisin et concurrent des Maubuisson.
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Premiers crus
 Réalisation : Jérôme Le Maire
@@ -554,7 +570,7 @@
 Montage : Sylvie Landra
 Musique : Jean Claude Petit
 Son : François Fayard
-Décors : Rully, Mercurey, Fontaines et Bouzeron en Côte Chalonnaise, château de Pierreclos dans le Mâconnais, Pernand-Vergelesses et Vougeot en Côte d'Or[1]
+Décors : Rully, Mercurey, Fontaines et Bouzeron en Côte Chalonnaise, château de Pierreclos dans le Mâconnais, Pernand-Vergelesses et Vougeot en Côte d'Or
 Costumes : Emmanuelle Pertus
 Producteur : Alain Terzian
 Société de production : Alter Films
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gérard Lanvin : François Maréchal
